--- a/biology/Médecine/Syndrome_de_Stickler/Syndrome_de_Stickler.xlsx
+++ b/biology/Médecine/Syndrome_de_Stickler/Syndrome_de_Stickler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Stickler est une maladie d'origine génétique du tissu conjonctif caractérisée par le docteur Gunnar B. Stickler en 1965 lorsqu'il travaillait à la Mayo Clinic.
@@ -512,9 +524,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est secondaire à une mutation des gènes COL2A1, COL11A1 ou COL11A2. Il s'agit d'une maladie à transmission autosomique dominante[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est secondaire à une mutation des gènes COL2A1, COL11A1 ou COL11A2. Il s'agit d'une maladie à transmission autosomique dominante.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ce syndrome associe :
-Des troubles oculaires à type de myopie précoce, cataracte ou un décollement rétininen[2], et, plus rarement, de glaucome congénital[3].
+Des troubles oculaires à type de myopie précoce, cataracte ou un décollement rétininen, et, plus rarement, de glaucome congénital.
 Une surdité de transmission ou de perception est fréquente.
 Des anomalies faciales de type fente labiale ou séquence de Pierre Robin.
 Une atteinte osseuse des vertèbres et des épiphyses
